--- a/server/seeds/categorys.xlsx
+++ b/server/seeds/categorys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18975" windowHeight="10035"/>
+    <workbookView windowWidth="21480" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="35" r:id="rId1"/>
@@ -97,7 +97,7 @@
     <t>00000000-0000-0000-0000-000000000010</t>
   </si>
   <si>
-    <t>特色工艺</t>
+    <t>工艺特色</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000011</t>
@@ -232,9 +232,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -245,8 +245,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,46 +358,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,79 +382,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,187 +398,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,8 +595,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,6 +616,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -627,6 +642,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,60 +689,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,131 +707,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,7 +1159,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/server/seeds/categorys.xlsx
+++ b/server/seeds/categorys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="12195"/>
+    <workbookView windowWidth="24240" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="35" r:id="rId1"/>
@@ -229,7 +229,7 @@
     <t>00000000-0000-0000-0000-000000000021</t>
   </si>
   <si>
-    <t>周别住宿</t>
+    <t>周边住宿</t>
   </si>
   <si>
     <t>/image/hotel</t>
@@ -331,9 +331,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -345,9 +345,71 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,6 +436,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -382,14 +473,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -399,90 +482,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,187 +497,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,76 +691,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,8 +718,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,131 +806,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,10 +1258,10 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="44.625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>

--- a/server/seeds/categorys.xlsx
+++ b/server/seeds/categorys.xlsx
@@ -330,10 +330,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -345,7 +345,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,6 +366,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -366,6 +388,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -383,14 +406,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -413,6 +428,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -421,50 +443,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -482,6 +460,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -497,6 +497,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -509,37 +521,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,133 +665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,15 +688,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -724,6 +715,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -735,21 +737,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,11 +767,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,131 +806,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1258,7 +1258,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/server/seeds/categorys.xlsx
+++ b/server/seeds/categorys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18795" windowHeight="11595"/>
+    <workbookView windowWidth="25500" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="35" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>ID</t>
   </si>
@@ -31,85 +31,133 @@
     <t>00000000-0000-0000-0000-000000000001</t>
   </si>
   <si>
-    <t>文章</t>
+    <t>频道</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000002</t>
   </si>
   <si>
-    <t>帮助</t>
+    <t>通知</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000003</t>
   </si>
   <si>
-    <t>快讯</t>
+    <t>活动</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000004</t>
   </si>
   <si>
-    <t>新闻</t>
+    <t>培训</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000005</t>
   </si>
   <si>
-    <t>公告</t>
+    <t>理论政策</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000006</t>
   </si>
   <si>
-    <t>帮助中心</t>
+    <t>教育素质</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000007</t>
   </si>
   <si>
-    <t>保障体系</t>
+    <t>文化文明</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000008</t>
   </si>
   <si>
-    <t>关于我们</t>
+    <t>科技科普</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000009</t>
   </si>
   <si>
-    <t>法律声明</t>
+    <t>健身体育</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000010</t>
   </si>
   <si>
-    <t>隐私条款</t>
+    <t>培训提升</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000011</t>
   </si>
   <si>
-    <t>服务协议</t>
+    <t>表彰激励</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000012</t>
   </si>
   <si>
-    <t>公司简介</t>
+    <t>爱心商家</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000013</t>
   </si>
   <si>
-    <t>联系我们</t>
+    <t>他山之石</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000014</t>
   </si>
   <si>
-    <t>人才招聘</t>
+    <t>最新活动</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000015</t>
+  </si>
+  <si>
+    <t>活动通知</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000016</t>
+  </si>
+  <si>
+    <t>培训通知</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000017</t>
+  </si>
+  <si>
+    <t>最新招募</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000018</t>
+  </si>
+  <si>
+    <t>理论类</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000019</t>
+  </si>
+  <si>
+    <t>政策类</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000020</t>
+  </si>
+  <si>
+    <t>科技类</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000021</t>
+  </si>
+  <si>
+    <t>文化类</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000022</t>
+  </si>
+  <si>
+    <t>专项技能</t>
   </si>
 </sst>
 </file>
@@ -117,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,19 +179,100 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,51 +284,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,63 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,13 +332,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,19 +494,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,133 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,17 +535,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +580,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -552,25 +609,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -578,146 +626,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -726,54 +774,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1040,15 +1088,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="44.625" customWidth="1"/>
     <col min="2" max="2" width="14.125" customWidth="1"/>
@@ -1091,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1101,11 +1149,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1114,9 +1159,6 @@
       </c>
       <c r="C5">
         <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1144,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1158,7 +1200,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1172,7 +1214,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1186,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1200,7 +1242,7 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1214,7 +1256,7 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1228,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1242,7 +1284,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1256,7 +1298,119 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
         <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/server/seeds/categorys.xlsx
+++ b/server/seeds/categorys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25500" windowHeight="10740"/>
+    <workbookView windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="35" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <t>00000000-0000-0000-0000-000000000003</t>
   </si>
   <si>
-    <t>活动</t>
+    <t>实践中心</t>
   </si>
   <si>
     <t>00000000-0000-0000-0000-000000000004</t>
@@ -165,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -193,39 +193,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,78 +315,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,19 +338,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +410,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,145 +470,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,65 +531,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,143 +564,202 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="3"/>
